--- a/May'21/31.05.2021/Daily Sales Info.xlsx
+++ b/May'21/31.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -402,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,6 +1087,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,12 +1166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13517,80 +13508,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -13629,19 +13620,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -13653,13 +13644,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -14690,11 +14681,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -14765,11 +14756,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581828</v>
@@ -14806,14 +14797,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -15067,80 +15058,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -15179,21 +15170,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1038961</v>
@@ -15207,15 +15198,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -16585,11 +16576,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>728175</v>
@@ -16668,11 +16659,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>1144069</v>
@@ -16709,16 +16700,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="111"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="113"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="114"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -17005,80 +16996,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -17117,21 +17108,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1038962</v>
@@ -17145,15 +17136,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -18511,11 +18502,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>1262077</v>
@@ -18594,11 +18585,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>920954</v>
@@ -18635,16 +18626,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -18918,80 +18909,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -19030,19 +19021,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>123585</v>
@@ -19056,13 +19047,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -20213,11 +20204,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>122614</v>
@@ -20288,11 +20279,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>921925</v>
@@ -20329,14 +20320,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -20592,80 +20583,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -20704,19 +20695,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -20728,13 +20719,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -21825,11 +21816,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>69603</v>
@@ -21900,11 +21891,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>852322</v>
@@ -21941,14 +21932,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -22202,80 +22193,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -22314,19 +22305,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -22338,13 +22329,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23375,11 +23366,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -23450,11 +23441,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>852322</v>
@@ -23491,14 +23482,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23752,80 +23743,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -23864,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -23888,13 +23879,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -24925,11 +24916,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -25000,11 +24991,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>852322</v>
@@ -25041,14 +25032,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25302,80 +25293,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -25414,19 +25405,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -25438,13 +25429,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26475,11 +26466,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -26550,11 +26541,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>852322</v>
@@ -26591,14 +26582,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -26852,80 +26843,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -26964,19 +26955,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -26988,13 +26979,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28091,11 +28082,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>135975</v>
@@ -28166,11 +28157,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>716347</v>
@@ -28207,14 +28198,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -28475,80 +28466,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -28587,19 +28578,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -28611,13 +28602,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -29770,11 +29761,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>152493</v>
@@ -29845,11 +29836,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>563854</v>
@@ -29886,14 +29877,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30211,80 +30202,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -30323,19 +30314,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>211688</v>
@@ -30349,13 +30340,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31524,11 +31515,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>150841</v>
@@ -31599,11 +31590,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>624701</v>
@@ -31640,14 +31631,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -31906,80 +31897,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>753669</v>
@@ -32009,19 +32000,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -32033,13 +32024,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -33203,11 +33194,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>171841</v>
@@ -33278,11 +33269,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581828</v>
@@ -33319,14 +33310,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -33576,80 +33567,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -33688,19 +33679,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -33712,13 +33703,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -34909,11 +34900,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>169363</v>
@@ -34984,11 +34975,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>455338</v>
@@ -35025,14 +35016,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -35286,80 +35277,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -35398,19 +35389,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -35422,13 +35413,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -36459,11 +36450,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -36534,11 +36525,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>455338</v>
@@ -36575,14 +36566,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -36838,80 +36829,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -36950,19 +36941,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4">
@@ -36976,13 +36967,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -38145,11 +38136,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>188138</v>
@@ -38220,11 +38211,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>267200</v>
@@ -38261,14 +38252,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -38523,80 +38514,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -38635,19 +38626,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>493996</v>
@@ -38661,13 +38652,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -39856,11 +39847,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>185098</v>
@@ -39931,11 +39922,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>576098</v>
@@ -39972,14 +39963,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -40249,80 +40240,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -40361,19 +40352,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -40385,13 +40376,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -41582,11 +41573,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>177501</v>
@@ -41657,11 +41648,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>398597</v>
@@ -41698,14 +41689,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41960,80 +41951,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -42072,19 +42063,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>623376</v>
@@ -42106,13 +42097,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -43251,11 +43242,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>196946</v>
@@ -43326,11 +43317,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>825027</v>
@@ -43367,14 +43358,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -43640,80 +43631,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -43752,19 +43743,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -43776,13 +43767,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -44982,11 +44973,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>174504</v>
@@ -45057,11 +45048,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>650523</v>
@@ -45098,14 +45089,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45361,80 +45352,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -45473,19 +45464,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>415584</v>
@@ -45499,13 +45490,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -46680,11 +46671,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>198306</v>
@@ -46755,11 +46746,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>867801</v>
@@ -46796,14 +46787,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -47057,80 +47048,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -47169,19 +47160,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -47193,13 +47184,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48230,11 +48221,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -48305,11 +48296,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>867801</v>
@@ -48346,14 +48337,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -48613,80 +48604,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -48725,19 +48716,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -48749,13 +48740,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -49958,11 +49949,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>227976</v>
@@ -50033,11 +50024,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>639825</v>
@@ -50074,14 +50065,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50336,80 +50327,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -50448,19 +50439,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>118314</v>
@@ -50478,13 +50469,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -51668,11 +51659,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>166216</v>
@@ -51743,11 +51734,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -51784,14 +51775,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52046,80 +52037,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -52158,21 +52149,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>519480</v>
@@ -52186,15 +52177,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -53554,11 +53545,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>481235</v>
@@ -53637,11 +53628,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>678070</v>
@@ -53678,16 +53669,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -53943,9 +53934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53962,80 +53953,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -54074,21 +54065,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>339665</v>
@@ -54102,15 +54093,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -54240,7 +54231,7 @@
       <c r="U7" s="68">
         <v>162</v>
       </c>
-      <c r="V7" s="114">
+      <c r="V7" s="88">
         <f>R7-U7</f>
         <v>30853.285</v>
       </c>
@@ -54299,7 +54290,7 @@
       <c r="U8" s="68">
         <v>72</v>
       </c>
-      <c r="V8" s="114">
+      <c r="V8" s="88">
         <f t="shared" ref="V8:V27" si="6">R8-U8</f>
         <v>17000.442500000001</v>
       </c>
@@ -54364,7 +54355,7 @@
       <c r="U9" s="68">
         <v>315</v>
       </c>
-      <c r="V9" s="114">
+      <c r="V9" s="88">
         <f t="shared" si="6"/>
         <v>42000.474999999999</v>
       </c>
@@ -54425,7 +54416,7 @@
       <c r="U10" s="68">
         <v>81</v>
       </c>
-      <c r="V10" s="114">
+      <c r="V10" s="88">
         <f t="shared" si="6"/>
         <v>17425.0425</v>
       </c>
@@ -54484,7 +54475,7 @@
       <c r="U11" s="68">
         <v>54</v>
       </c>
-      <c r="V11" s="114">
+      <c r="V11" s="88">
         <f t="shared" si="6"/>
         <v>9280.8174999999992</v>
       </c>
@@ -54541,7 +54532,7 @@
       <c r="U12" s="68">
         <v>54</v>
       </c>
-      <c r="V12" s="114">
+      <c r="V12" s="88">
         <f t="shared" si="6"/>
         <v>7240.8975</v>
       </c>
@@ -54598,7 +54589,7 @@
       <c r="U13" s="68">
         <v>72</v>
       </c>
-      <c r="V13" s="114">
+      <c r="V13" s="88">
         <f t="shared" si="6"/>
         <v>10140.627500000001</v>
       </c>
@@ -54657,7 +54648,7 @@
       <c r="U14" s="68">
         <v>549</v>
       </c>
-      <c r="V14" s="114">
+      <c r="V14" s="88">
         <f t="shared" si="6"/>
         <v>64410.214999999997</v>
       </c>
@@ -54722,14 +54713,14 @@
       <c r="U15" s="68">
         <v>153</v>
       </c>
-      <c r="V15" s="114">
+      <c r="V15" s="88">
         <f t="shared" si="6"/>
         <v>32005.282500000001</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="115">
-        <v>5600</v>
+      <c r="A16" s="28">
+        <v>10</v>
       </c>
       <c r="B16" s="20">
         <v>1908446143</v>
@@ -54781,7 +54772,7 @@
       <c r="U16" s="68">
         <v>360</v>
       </c>
-      <c r="V16" s="114">
+      <c r="V16" s="88">
         <f t="shared" si="6"/>
         <v>46665.452499999999</v>
       </c>
@@ -54842,7 +54833,7 @@
       <c r="U17" s="68">
         <v>216</v>
       </c>
-      <c r="V17" s="114">
+      <c r="V17" s="88">
         <f t="shared" si="6"/>
         <v>23853.994999999999</v>
       </c>
@@ -54899,7 +54890,7 @@
       <c r="U18" s="68">
         <v>217</v>
       </c>
-      <c r="V18" s="114">
+      <c r="V18" s="88">
         <f t="shared" si="6"/>
         <v>29010.427500000002</v>
       </c>
@@ -54964,7 +54955,7 @@
       <c r="U19" s="68">
         <v>203</v>
       </c>
-      <c r="V19" s="114">
+      <c r="V19" s="88">
         <f t="shared" si="6"/>
         <v>28157.66</v>
       </c>
@@ -55025,7 +55016,7 @@
       <c r="U20" s="68">
         <v>144</v>
       </c>
-      <c r="V20" s="114">
+      <c r="V20" s="88">
         <f t="shared" si="6"/>
         <v>19938.455000000002</v>
       </c>
@@ -55082,7 +55073,7 @@
       <c r="U21" s="68">
         <v>90</v>
       </c>
-      <c r="V21" s="114">
+      <c r="V21" s="88">
         <f t="shared" si="6"/>
         <v>13645.04</v>
       </c>
@@ -55149,7 +55140,7 @@
       <c r="U22" s="68">
         <v>198</v>
       </c>
-      <c r="V22" s="114">
+      <c r="V22" s="88">
         <f t="shared" si="6"/>
         <v>33392.78</v>
       </c>
@@ -55208,7 +55199,7 @@
       <c r="U23" s="68">
         <v>117</v>
       </c>
-      <c r="V23" s="114">
+      <c r="V23" s="88">
         <f t="shared" si="6"/>
         <v>26531.78</v>
       </c>
@@ -55267,7 +55258,7 @@
       <c r="U24" s="68">
         <v>225</v>
       </c>
-      <c r="V24" s="114">
+      <c r="V24" s="88">
         <f t="shared" si="6"/>
         <v>29280.36</v>
       </c>
@@ -55326,7 +55317,7 @@
       <c r="U25" s="68">
         <v>153</v>
       </c>
-      <c r="V25" s="114">
+      <c r="V25" s="88">
         <f t="shared" si="6"/>
         <v>20091.037499999999</v>
       </c>
@@ -55387,7 +55378,7 @@
       <c r="U26" s="68">
         <v>99</v>
       </c>
-      <c r="V26" s="114">
+      <c r="V26" s="88">
         <f t="shared" si="6"/>
         <v>15866.7</v>
       </c>
@@ -55446,17 +55437,17 @@
       <c r="U27" s="68">
         <v>260</v>
       </c>
-      <c r="V27" s="114">
+      <c r="V27" s="88">
         <f t="shared" si="6"/>
         <v>34587.5</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>541331</v>
@@ -55535,11 +55526,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>476404</v>
@@ -55576,16 +55567,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55821,8 +55812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55840,80 +55831,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D4</f>
@@ -55952,19 +55943,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'2'!D5+'1'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -56003,13 +55994,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -57670,11 +57661,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>6695084</v>
@@ -57745,11 +57736,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>476404</v>
@@ -57786,14 +57777,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -58043,80 +58034,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -58155,19 +58146,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>337324</v>
@@ -58187,13 +58178,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -59388,11 +59379,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>180045</v>
@@ -59463,11 +59454,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>691205</v>
@@ -59504,14 +59495,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59766,80 +59757,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -59881,19 +59872,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -59907,13 +59898,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -61126,11 +61117,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>194539</v>
@@ -61201,11 +61192,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>496666</v>
@@ -61242,14 +61233,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -61503,80 +61494,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -61615,19 +61606,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>117922</v>
@@ -61641,13 +61632,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -62828,11 +62819,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>214959</v>
@@ -62903,11 +62894,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>399629</v>
@@ -62944,14 +62935,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -63208,80 +63199,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -63320,21 +63311,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1038962</v>
@@ -63350,15 +63341,15 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -64676,11 +64667,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="8">SUM(D7:D27)</f>
         <v>257379</v>
@@ -64759,11 +64750,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>1181212</v>
@@ -64800,16 +64791,16 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -65084,80 +65075,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -65196,19 +65187,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -65220,13 +65211,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -66257,11 +66248,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -66332,11 +66323,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>1181212</v>
@@ -66373,14 +66364,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -66635,80 +66626,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -66747,21 +66738,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -66775,15 +66766,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -68129,11 +68120,11 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
         <v>347929</v>
@@ -68212,11 +68203,11 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>833283</v>
@@ -68253,16 +68244,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>

--- a/May'21/31.05.2021/Daily Sales Info.xlsx
+++ b/May'21/31.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -38497,7 +38497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43611,9 +43611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45334,7 +45334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48581,8 +48581,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52021,7 +52021,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53935,8 +53935,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55812,8 +55812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/May'21/31.05.2021/Daily Sales Info.xlsx
+++ b/May'21/31.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -43611,8 +43611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -53934,9 +53934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/May'21/31.05.2021/Daily Sales Info.xlsx
+++ b/May'21/31.05.2021/Daily Sales Info.xlsx
@@ -15040,9 +15040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16973,9 +16973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18329,7 +18329,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="29">
-        <v>53488</v>
+        <v>55000</v>
       </c>
       <c r="E25" s="30">
         <v>20</v>
@@ -18349,15 +18349,15 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>54258</v>
+        <v>55770</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="4"/>
-        <v>55213</v>
+        <v>56725</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="5"/>
-        <v>1492.095</v>
+        <v>1533.675</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
@@ -18365,22 +18365,22 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" si="0"/>
-        <v>53445.904999999999</v>
+        <v>54916.324999999997</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="1"/>
-        <v>515.45100000000002</v>
+        <v>529.81499999999994</v>
       </c>
       <c r="T25" s="66">
         <f t="shared" si="2"/>
-        <v>240.45100000000002</v>
+        <v>254.81499999999994</v>
       </c>
       <c r="U25" s="68">
         <v>468</v>
       </c>
       <c r="V25" s="70">
         <f t="shared" si="6"/>
-        <v>52977.904999999999</v>
+        <v>54448.324999999997</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -18509,7 +18509,7 @@
       <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
-        <v>1262077</v>
+        <v>1263589</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="7"/>
@@ -18545,15 +18545,15 @@
       </c>
       <c r="M28" s="74">
         <f t="shared" si="8"/>
-        <v>1308167</v>
+        <v>1309679</v>
       </c>
       <c r="N28" s="74">
         <f t="shared" si="8"/>
-        <v>1322350</v>
+        <v>1323862</v>
       </c>
       <c r="O28" s="75">
         <f t="shared" si="8"/>
-        <v>35974.592500000006</v>
+        <v>36016.172500000008</v>
       </c>
       <c r="P28" s="74">
         <f t="shared" si="8"/>
@@ -18565,15 +18565,15 @@
       </c>
       <c r="R28" s="74">
         <f t="shared" si="8"/>
-        <v>1282847.4075</v>
+        <v>1284317.8274999999</v>
       </c>
       <c r="S28" s="74">
         <f t="shared" si="8"/>
-        <v>12427.586499999998</v>
+        <v>12441.950499999999</v>
       </c>
       <c r="T28" s="76">
         <f t="shared" si="8"/>
-        <v>8899.5865000000013</v>
+        <v>8913.9505000000008</v>
       </c>
       <c r="U28" s="76">
         <f t="shared" si="8"/>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="V28" s="76">
         <f t="shared" si="8"/>
-        <v>1272611.4075</v>
+        <v>1274081.8274999999</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18592,7 +18592,7 @@
       <c r="C29" s="94"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>920954</v>
+        <v>919442</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="9">E4+E5-E28</f>
@@ -18893,7 +18893,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18986,7 +18986,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>920954</v>
+        <v>919442</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
@@ -20066,7 +20066,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="29">
-        <v>6512</v>
+        <v>5000</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -20078,15 +20078,15 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>6512</v>
+        <v>5000</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>6512</v>
+        <v>5000</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>179.08</v>
+        <v>137.5</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
@@ -20094,15 +20094,15 @@
       </c>
       <c r="R25" s="29">
         <f t="shared" si="3"/>
-        <v>6269.92</v>
+        <v>4799.5</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>61.863999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>-1.1360000000000028</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -20211,7 +20211,7 @@
       <c r="C28" s="91"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>122614</v>
+        <v>121102</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -20247,15 +20247,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>137984</v>
+        <v>136472</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>146563</v>
+        <v>145051</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>3794.5599999999995</v>
+        <v>3752.9799999999996</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -20267,15 +20267,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>141173.44</v>
+        <v>139703.01999999999</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1310.848</v>
+        <v>1296.4839999999999</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-284.15199999999999</v>
+        <v>-298.51599999999996</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20567,7 +20567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26827,7 +26827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28443,7 +28443,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30182,8 +30182,8 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33550,7 +33550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36810,8 +36810,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38497,7 +38497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40216,7 +40216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41933,8 +41933,8 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43613,7 +43613,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45333,8 +45333,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48581,8 +48581,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50311,7 +50311,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52021,7 +52021,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53934,9 +53934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58017,8 +58017,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59740,8 +59740,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61478,7 +61478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63181,7 +63181,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -66607,9 +66607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U27" sqref="U27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/May'21/31.05.2021/Daily Sales Info.xlsx
+++ b/May'21/31.05.2021/Daily Sales Info.xlsx
@@ -53935,8 +53935,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/May'21/31.05.2021/Daily Sales Info.xlsx
+++ b/May'21/31.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -15042,7 +15042,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16975,7 +16975,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18892,8 +18892,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="A25:XFD25"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52019,8 +52019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -53934,9 +53934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63179,9 +63179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -65058,7 +65058,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -66609,7 +66609,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
